--- a/insezacweb/assets/files/programas.xlsx
+++ b/insezacweb/assets/files/programas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\Catalogos originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -247,30 +247,24 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -280,7 +274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,25 +306,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,555 +614,555 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1171,5 +1171,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>